--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinnyvalente/Desktop/SCCC/Spring 2020/CSE248 /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072CFE0F-84AD-5F42-9C1D-6EA985613B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FB4BAF-7ABE-2C45-BC9D-C80D1FED1946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16420" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16380" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Class</t>
   </si>
@@ -114,6 +114,36 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>vinny</t>
+  </si>
+  <si>
+    <t>jon</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>PANE</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display </t>
+  </si>
+  <si>
+    <t>cart/checkout</t>
+  </si>
+  <si>
+    <t>information/invoice</t>
+  </si>
+  <si>
+    <t>financials</t>
   </si>
 </sst>
 </file>
@@ -481,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7172CB-218E-634F-8C4E-F928855B0C14}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -605,6 +635,9 @@
       <c r="E5">
         <v>2</v>
       </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" t="s">
         <v>26</v>
       </c>
@@ -625,6 +658,9 @@
       <c r="E6">
         <v>8</v>
       </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
@@ -665,6 +701,9 @@
       <c r="E8">
         <v>15</v>
       </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" t="s">
         <v>26</v>
       </c>
@@ -705,6 +744,9 @@
       <c r="E10">
         <v>8</v>
       </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
       <c r="G10" t="s">
         <v>26</v>
       </c>
@@ -725,6 +767,9 @@
       <c r="E11">
         <v>23</v>
       </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" t="s">
         <v>26</v>
       </c>
@@ -745,6 +790,9 @@
       <c r="E12">
         <v>10</v>
       </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
       <c r="G12" t="s">
         <v>26</v>
       </c>
@@ -765,6 +813,9 @@
       <c r="E13">
         <v>3</v>
       </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" t="s">
         <v>26</v>
       </c>
@@ -785,6 +836,9 @@
       <c r="E14">
         <v>15</v>
       </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" t="s">
         <v>26</v>
       </c>
@@ -802,6 +856,41 @@
       <c r="E15">
         <f>E2+E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
         <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinnyvalente/Desktop/SCCC/Spring 2020/CSE248 /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FB4BAF-7ABE-2C45-BC9D-C80D1FED1946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B554220-9394-454D-A8BF-3C6CD5DD3669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16380" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
+    <workbookView xWindow="14660" yWindow="460" windowWidth="13760" windowHeight="16380" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,12 +47,6 @@
     <t>Adress</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Data Sets</t>
   </si>
   <si>
@@ -144,6 +135,15 @@
   </si>
   <si>
     <t>financials</t>
+  </si>
+  <si>
+    <t>Admin/Account Status</t>
+  </si>
+  <si>
+    <t>User/ Account Type</t>
+  </si>
+  <si>
+    <t>Order/ Date and Time</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -532,22 +532,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -567,10 +567,10 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -590,15 +590,15 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -613,15 +613,15 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -636,15 +636,15 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -659,15 +659,15 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -682,12 +682,12 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -702,15 +702,15 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -725,12 +725,12 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -745,15 +745,15 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -768,15 +768,15 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -791,15 +791,15 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -814,15 +814,15 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -837,21 +837,21 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <f>E2+E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
@@ -860,37 +860,37 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinnyvalente/Desktop/SCCC/Spring 2020/CSE248 /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\College Work\CSE248\CSE248GroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B554220-9394-454D-A8BF-3C6CD5DD3669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4855FB7C-4D30-40C1-8CA8-8F3B4E8CE1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14660" yWindow="460" windowWidth="13760" windowHeight="16380" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Class</t>
   </si>
@@ -80,15 +80,6 @@
     <t>Account Info</t>
   </si>
   <si>
-    <t>2 points</t>
-  </si>
-  <si>
-    <t>1 poiont</t>
-  </si>
-  <si>
-    <t>5 points</t>
-  </si>
-  <si>
     <t>Person on Task</t>
   </si>
   <si>
@@ -107,18 +98,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>vinny</t>
-  </si>
-  <si>
-    <t>jon</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>alex</t>
-  </si>
-  <si>
     <t>PANE</t>
   </si>
   <si>
@@ -144,12 +123,33 @@
   </si>
   <si>
     <t>Order/ Date and Time</t>
+  </si>
+  <si>
+    <t>Vinny</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Reset Password/Forgot Email</t>
+  </si>
+  <si>
+    <t>1 Point</t>
+  </si>
+  <si>
+    <t>2 Points</t>
+  </si>
+  <si>
+    <t>5 Points</t>
+  </si>
+  <si>
+    <t>Jon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -201,8 +201,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{8DB9C4EC-1451-4876-8201-CC024B460D36}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -511,23 +539,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7172CB-218E-634F-8C4E-F928855B0C14}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26">
+    <row r="1" spans="1:7" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,10 +573,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -567,10 +596,10 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -590,15 +619,15 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -613,15 +642,15 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -636,10 +665,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -659,10 +688,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -681,8 +710,11 @@
       <c r="E7">
         <v>9</v>
       </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -702,10 +734,10 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -725,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -745,15 +777,15 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -768,10 +800,10 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -791,10 +823,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -814,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -837,60 +869,88 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
         <f>E2+E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\College Work\CSE248\CSE248GroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinnyvalente/Desktop/SCCC/Spring 2020/CSE248 /CSE248GroupProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4855FB7C-4D30-40C1-8CA8-8F3B4E8CE1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27DC09D-1230-AC4A-9C40-36BC45F58B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Class</t>
   </si>
@@ -98,9 +98,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>PANE</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
@@ -144,6 +141,15 @@
   </si>
   <si>
     <t>Jon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database / financials </t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>PANE (5pnts EACH PANE)</t>
   </si>
 </sst>
 </file>
@@ -539,24 +545,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7172CB-218E-634F-8C4E-F928855B0C14}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25">
+    <row r="1" spans="1:7" ht="26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +633,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -650,7 +656,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -665,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -688,10 +694,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -734,10 +740,10 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -756,8 +762,11 @@
       <c r="E9">
         <v>4</v>
       </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -785,7 +794,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -800,10 +809,10 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -823,10 +832,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -846,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -869,88 +878,135 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="s">
+    <row r="19" spans="1:7">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16">
-        <f>E2+E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="E19">
+        <f>E2+E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="E31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="E33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="E34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>26</v>
+      <c r="E35">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinnyvalente/Desktop/SCCC/Spring 2020/CSE248 /CSE248GroupProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27DC09D-1230-AC4A-9C40-36BC45F58B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDCD0D9-5A74-4B4F-A1E2-91DCBF9200BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>Class</t>
   </si>
@@ -146,10 +146,10 @@
     <t xml:space="preserve">Database / financials </t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>PANE (5pnts EACH PANE)</t>
+  </si>
+  <si>
+    <t>jon</t>
   </si>
 </sst>
 </file>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7172CB-218E-634F-8C4E-F928855B0C14}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -766,7 +766,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -924,7 +924,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -966,7 +966,7 @@
         <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -976,6 +976,12 @@
       <c r="E31">
         <v>10</v>
       </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
@@ -984,24 +990,42 @@
       <c r="E32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>22</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>24</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>25</v>
       </c>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinnyvalente/Desktop/SCCC/Spring 2020/CSE248 /CSE248GroupProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDCD0D9-5A74-4B4F-A1E2-91DCBF9200BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51066442-E542-7546-BA98-ECA748BE3E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16360" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="63">
   <si>
     <t>Class</t>
   </si>
@@ -44,42 +44,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Adress</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
     <t>Cart</t>
   </si>
   <si>
-    <t>Search(Interface)</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
-    <t>Data Sets</t>
-  </si>
-  <si>
-    <t>Methods</t>
-  </si>
-  <si>
-    <t>Fields</t>
-  </si>
-  <si>
-    <t>Order History</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order Status </t>
-  </si>
-  <si>
-    <t>Account Info</t>
-  </si>
-  <si>
     <t>Person on Task</t>
   </si>
   <si>
@@ -95,61 +65,163 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display </t>
-  </si>
-  <si>
-    <t>cart/checkout</t>
-  </si>
-  <si>
-    <t>information/invoice</t>
-  </si>
-  <si>
-    <t>financials</t>
-  </si>
-  <si>
-    <t>Admin/Account Status</t>
-  </si>
-  <si>
-    <t>User/ Account Type</t>
-  </si>
-  <si>
-    <t>Order/ Date and Time</t>
-  </si>
-  <si>
     <t>Vinny</t>
   </si>
   <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>Reset Password/Forgot Email</t>
-  </si>
-  <si>
-    <t>1 Point</t>
-  </si>
-  <si>
-    <t>2 Points</t>
-  </si>
-  <si>
-    <t>5 Points</t>
-  </si>
-  <si>
     <t>Jon</t>
   </si>
   <si>
-    <t xml:space="preserve">Database / financials </t>
-  </si>
-  <si>
-    <t>PANE (5pnts EACH PANE)</t>
-  </si>
-  <si>
-    <t>jon</t>
+    <t>AccountHelper</t>
+  </si>
+  <si>
+    <t>FileHelper</t>
+  </si>
+  <si>
+    <t>ProductHelper</t>
+  </si>
+  <si>
+    <t>AccountStatus</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>InvoiceDatabase</t>
+  </si>
+  <si>
+    <t>OrderDatabase</t>
+  </si>
+  <si>
+    <t>ProductDatabase</t>
+  </si>
+  <si>
+    <t>UserDatabase</t>
+  </si>
+  <si>
+    <t>LoginAndRegister</t>
+  </si>
+  <si>
+    <t>LoginStatus</t>
+  </si>
+  <si>
+    <t>RegisterStatus</t>
+  </si>
+  <si>
+    <t>ResetStatus</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>InvoiceTable</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>AddOrEditProduct</t>
+  </si>
+  <si>
+    <t>AddProductStatus</t>
+  </si>
+  <si>
+    <t>EditProductStatus</t>
+  </si>
+  <si>
+    <t>ProductStatus</t>
+  </si>
+  <si>
+    <t>Financials</t>
+  </si>
+  <si>
+    <t>ShoppingCart</t>
+  </si>
+  <si>
+    <t>Fields(1 point)</t>
+  </si>
+  <si>
+    <t>Methods(2 points)</t>
+  </si>
+  <si>
+    <t>Data Sets(2 points)</t>
+  </si>
+  <si>
+    <t>invoice.fxml. (fx = 10 points)</t>
+  </si>
+  <si>
+    <t>forgotpassword.fxml (fx = 10 points)</t>
+  </si>
+  <si>
+    <t>forgotusername.fxml (fx = 10 points)</t>
+  </si>
+  <si>
+    <t>login.fxml (fx = 10 points)</t>
+  </si>
+  <si>
+    <t>register.fxml (fx = 10 points)</t>
+  </si>
+  <si>
+    <t>addproduct.fxml (fx = 10 points)</t>
+  </si>
+  <si>
+    <t>editproduct.fxml (fx = 10 points)</t>
+  </si>
+  <si>
+    <t>financialhistory.fxml (fx = 10 points)</t>
+  </si>
+  <si>
+    <t>viewproduct.fxml (fx = 10 points)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                           Total Points:</t>
+  </si>
+  <si>
+    <t>adduser.fxml</t>
+  </si>
+  <si>
+    <t>adminpanel.fxml</t>
+  </si>
+  <si>
+    <t>home.fxml</t>
+  </si>
+  <si>
+    <t>edituser.fxml</t>
+  </si>
+  <si>
+    <t>invoicehistory.fxml</t>
+  </si>
+  <si>
+    <t>Use Case Diagram (10 points)</t>
+  </si>
+  <si>
+    <t>First UML Diagram (5 points)</t>
+  </si>
+  <si>
+    <t>Final UNL Diagram (15 points)</t>
+  </si>
+  <si>
+    <t>: Alex</t>
+  </si>
+  <si>
+    <t>: Vinny</t>
+  </si>
+  <si>
+    <t>: Jon</t>
+  </si>
+  <si>
+    <t>Finding Product Images (15 points)</t>
   </si>
 </sst>
 </file>
@@ -199,10 +271,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,19 +618,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7172CB-218E-634F-8C4E-F928855B0C14}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -567,470 +639,1141 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
       </c>
       <c r="E11">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E44" si="0">(B17)+(2*C17)+(2*D17)</f>
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19">
-        <f>E2+E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15</f>
-        <v>133</v>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6">
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <f>E44+E43+E42+E41+E40+E39+E38+E37+E36+E35+E34+E33+E32+E31+E30+E29+E28+E27+E26+E25+E24+E23+E22+E21+E20+E19+E18+E17+E10+E9+E8+E7+E6+E5+E4+E3+E2+E45+E46+E47+E48</f>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6">
+      <c r="E52">
+        <f>COUNTIF($F$2:$F$48,"Alex")</f>
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6">
+      <c r="E53">
+        <f>COUNTIF($F$2:$F$48,"Vinny")</f>
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6">
+      <c r="E54">
+        <f>COUNTIF($F$2:$F$48,"Jon")</f>
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\College Work\CSE248\CSE248GroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinnyvalente/Desktop/SCCC/Spring 2020/CSE248 /CSE248GroupProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655318A2-3BCD-40A2-BBA5-AE26CCE8B181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AEF1C1-2AD7-D342-9336-1D37D08DA13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="63">
   <si>
     <t>Weight</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Vinny</t>
   </si>
   <si>
@@ -218,16 +215,13 @@
     <t>: Jon</t>
   </si>
   <si>
-    <t>Finding Product Images (15 points)</t>
-  </si>
-  <si>
     <t>DAY COMPLETED</t>
   </si>
   <si>
     <t>Class/Assignment</t>
   </si>
   <si>
-    <t>Scrum Master: That vinny guy</t>
+    <t>2/</t>
   </si>
 </sst>
 </file>
@@ -265,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -373,11 +367,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,6 +423,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,6 +455,196 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -479,196 +680,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -711,16 +722,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63A120C8-5A00-4091-9C6D-69B8AD7BEAFC}" name="Table1" displayName="Table1" ref="A1:H49" totalsRowShown="0" headerRowDxfId="1" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:H49" xr:uid="{4F8DA752-06A8-4E11-B560-7833AFB12E13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63A120C8-5A00-4091-9C6D-69B8AD7BEAFC}" name="Table1" displayName="Table1" ref="A1:H50" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H50" xr:uid="{4F8DA752-06A8-4E11-B560-7833AFB12E13}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{27392E75-A079-472D-AE76-FAB0437B57EB}" name="Class/Assignment" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A28301B4-4679-4A7A-B909-9A2AC3756319}" name="Fields(1 point)" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F59DB934-ACCA-4407-AE42-F2DA1E43134A}" name="Methods(2 points)" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{9C9FD88E-B1F2-4001-A34B-4EC175484FD7}" name="Data Sets(2 points)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B1A870A0-143C-47E1-ADE7-F6D38F405286}" name="Weight" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{31343F22-C49F-4762-851A-EE2D468E01B2}" name="Person on Task" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{0A3432C0-67E1-4BEC-B40A-5A7E01900F54}" name="Completion" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{27392E75-A079-472D-AE76-FAB0437B57EB}" name="Class/Assignment" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A28301B4-4679-4A7A-B909-9A2AC3756319}" name="Fields(1 point)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F59DB934-ACCA-4407-AE42-F2DA1E43134A}" name="Methods(2 points)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9C9FD88E-B1F2-4001-A34B-4EC175484FD7}" name="Data Sets(2 points)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B1A870A0-143C-47E1-ADE7-F6D38F405286}" name="Weight" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{31343F22-C49F-4762-851A-EE2D468E01B2}" name="Person on Task" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0A3432C0-67E1-4BEC-B40A-5A7E01900F54}" name="Completion" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{1A0DAA63-128F-4449-886B-3F93840DFDBF}" name="DAY COMPLETED" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1026,34 +1037,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7172CB-218E-634F-8C4E-F928855B0C14}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25">
+    <row r="1" spans="1:8" ht="26">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -1065,45 +1076,47 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="7">
         <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="7">
         <v>10</v>
@@ -1114,20 +1127,22 @@
       <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7">
         <v>10</v>
@@ -1138,20 +1153,22 @@
       <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="7">
         <v>10</v>
@@ -1162,20 +1179,22 @@
       <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="15">
+        <v>43876</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="7">
         <v>10</v>
@@ -1186,223 +1205,243 @@
       <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="15">
+        <v>43876</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="7">
         <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="15">
+        <v>43882</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="7">
         <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="15">
+        <v>43882</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="7">
         <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="15">
+        <v>43883</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7">
         <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="15">
+        <v>43882</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="7">
         <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="H11" s="15">
+        <v>43883</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7">
         <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="H12" s="15">
+        <v>43883</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="7">
         <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="H13" s="15">
+        <v>43883</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="7">
         <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="H14" s="15">
+        <v>43884</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="7">
         <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="H15" s="15">
+        <v>43882</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6"/>
@@ -1416,7 +1455,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="7">
         <v>4</v>
@@ -1437,11 +1476,13 @@
       <c r="G17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="15">
+        <v>43876</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="7">
         <v>5</v>
@@ -1457,16 +1498,18 @@
         <v>25</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="15">
+        <v>43883</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -1482,16 +1525,18 @@
         <v>4</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="15">
+        <v>43882</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7">
         <v>2</v>
@@ -1512,11 +1557,13 @@
       <c r="G20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="15">
+        <v>43877</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="7">
         <v>2</v>
@@ -1537,11 +1584,13 @@
       <c r="G21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="15">
+        <v>43877</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="7">
         <v>4</v>
@@ -1562,7 +1611,9 @@
       <c r="G22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="15">
+        <v>43876</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6" t="s">
@@ -1582,12 +1633,14 @@
         <v>23</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="H23" s="15">
+        <v>43882</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6" t="s">
@@ -1612,11 +1665,13 @@
       <c r="G24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="15">
+        <v>43875</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="7">
         <v>12</v>
@@ -1637,11 +1692,13 @@
       <c r="G25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="15">
+        <v>43877</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="7">
         <v>2</v>
@@ -1657,16 +1714,18 @@
         <v>18</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="15">
+        <v>43881</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="7">
         <v>2</v>
@@ -1682,16 +1741,18 @@
         <v>20</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="15">
+        <v>43881</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="7">
         <v>2</v>
@@ -1707,16 +1768,18 @@
         <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="15">
+        <v>43881</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="7">
         <v>2</v>
@@ -1732,16 +1795,18 @@
         <v>26</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="15">
+        <v>43881</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="7">
         <v>1</v>
@@ -1762,11 +1827,13 @@
       <c r="G30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="15">
+        <v>43882</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="7">
         <v>5</v>
@@ -1787,11 +1854,13 @@
       <c r="G31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="15">
+        <v>43876</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="7">
         <v>8</v>
@@ -1812,11 +1881,13 @@
       <c r="G32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="15">
+        <v>43876</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="7">
         <v>6</v>
@@ -1837,11 +1908,13 @@
       <c r="G33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="15">
+        <v>43876</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="7">
         <v>3</v>
@@ -1857,16 +1930,18 @@
         <v>11</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="15">
+        <v>43880</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="7">
         <v>5</v>
@@ -1882,16 +1957,18 @@
         <v>17</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="15">
+        <v>43882</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="7">
         <v>7</v>
@@ -1907,16 +1984,18 @@
         <v>31</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="15">
+        <v>43881</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="7">
         <v>4</v>
@@ -1932,16 +2011,18 @@
         <v>4</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="15">
+        <v>43877</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="7">
         <v>1</v>
@@ -1957,16 +2038,18 @@
         <v>7</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="15">
+        <v>43882</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="7">
         <v>5</v>
@@ -1982,16 +2065,18 @@
         <v>5</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="15">
+        <v>43882</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="7">
         <v>5</v>
@@ -2007,12 +2092,14 @@
         <v>5</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="15">
+        <v>43882</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="6" t="s">
@@ -2037,11 +2124,13 @@
       <c r="G41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="15">
+        <v>43881</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="7">
         <v>4</v>
@@ -2062,11 +2151,13 @@
       <c r="G42" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="7"/>
+      <c r="H42" s="15">
+        <v>43881</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="7">
         <v>2</v>
@@ -2082,16 +2173,18 @@
         <v>14</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="15">
+        <v>43882</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="7">
         <v>8</v>
@@ -2112,7 +2205,9 @@
       <c r="G44" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="7"/>
+      <c r="H44" s="15">
+        <v>43877</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="6"/>
@@ -2122,44 +2217,46 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E46" s="7">
         <v>10</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="15">
+        <v>43874</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" s="7">
         <v>5</v>
@@ -2170,70 +2267,68 @@
       <c r="G47" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="15">
+        <v>43874</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E48" s="7">
         <v>15</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="H48" s="15">
+        <v>43884</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="11">
-        <v>15</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="11"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8">
       <c r="D51" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E51" s="13">
         <f>E44+E43+E42+E41+E40+E39+E38+E37+E36+E35+E34+E33+E32+E31+E30+E29+E28+E27+E26+E25+E24+E23+E22+E21+E20+E19+E18+E17+E10+E9+E8+E7+E6+E5+E4+E3+E2+E46+E47+E48+E49</f>
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
@@ -2241,31 +2336,31 @@
     <row r="53" spans="1:8">
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <f>COUNTIF($F$2:$F$49,"Alex")</f>
+        <f>COUNTIF($F$2:$F$50,"Alex")</f>
         <v>18</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <f>COUNTIF($F$2:$F$49,"Vinny")</f>
+        <f>COUNTIF($F$2:$F$50,"Vinny")</f>
         <v>19</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="D55" s="13"/>
       <c r="E55" s="13">
-        <f>COUNTIF($F$2:$F$49,"Jon")</f>
-        <v>9</v>
+        <f>COUNTIF($F$2:$F$50,"Jon")</f>
+        <v>8</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinnyvalente/Desktop/SCCC/Spring 2020/CSE248 /CSE248GroupProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AEF1C1-2AD7-D342-9336-1D37D08DA13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC73D454-F5BD-8B40-A41D-669EFE1396D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="62">
   <si>
     <t>Weight</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>Class/Assignment</t>
-  </si>
-  <si>
-    <t>2/</t>
   </si>
 </sst>
 </file>
@@ -417,9 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,6 +421,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1035,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1101,8 +1098,8 @@
       <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>62</v>
+      <c r="H2" s="15">
+        <v>43881</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1127,8 +1124,8 @@
       <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>62</v>
+      <c r="H3" s="14">
+        <v>43876</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1153,8 +1150,8 @@
       <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>62</v>
+      <c r="H4" s="14">
+        <v>43876</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1179,7 +1176,7 @@
       <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>43876</v>
       </c>
     </row>
@@ -1205,7 +1202,7 @@
       <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>43876</v>
       </c>
     </row>
@@ -1231,7 +1228,7 @@
       <c r="G7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>43882</v>
       </c>
     </row>
@@ -1257,7 +1254,7 @@
       <c r="G8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>43882</v>
       </c>
     </row>
@@ -1283,7 +1280,7 @@
       <c r="G9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>43883</v>
       </c>
     </row>
@@ -1309,7 +1306,7 @@
       <c r="G10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>43882</v>
       </c>
     </row>
@@ -1335,7 +1332,7 @@
       <c r="G11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>43883</v>
       </c>
     </row>
@@ -1361,7 +1358,7 @@
       <c r="G12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <v>43883</v>
       </c>
     </row>
@@ -1387,7 +1384,7 @@
       <c r="G13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>43883</v>
       </c>
     </row>
@@ -1413,7 +1410,7 @@
       <c r="G14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>43884</v>
       </c>
     </row>
@@ -1439,7 +1436,7 @@
       <c r="G15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <v>43882</v>
       </c>
     </row>
@@ -1476,7 +1473,7 @@
       <c r="G17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>43876</v>
       </c>
     </row>
@@ -1503,7 +1500,7 @@
       <c r="G18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <v>43883</v>
       </c>
     </row>
@@ -1530,7 +1527,7 @@
       <c r="G19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <v>43882</v>
       </c>
     </row>
@@ -1557,7 +1554,7 @@
       <c r="G20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <v>43877</v>
       </c>
     </row>
@@ -1584,7 +1581,7 @@
       <c r="G21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>43877</v>
       </c>
     </row>
@@ -1611,7 +1608,7 @@
       <c r="G22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <v>43876</v>
       </c>
     </row>
@@ -1638,7 +1635,7 @@
       <c r="G23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>43882</v>
       </c>
     </row>
@@ -1665,7 +1662,7 @@
       <c r="G24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <v>43875</v>
       </c>
     </row>
@@ -1692,7 +1689,7 @@
       <c r="G25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <v>43877</v>
       </c>
     </row>
@@ -1719,7 +1716,7 @@
       <c r="G26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <v>43881</v>
       </c>
     </row>
@@ -1746,7 +1743,7 @@
       <c r="G27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <v>43881</v>
       </c>
     </row>
@@ -1773,7 +1770,7 @@
       <c r="G28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>43881</v>
       </c>
     </row>
@@ -1800,7 +1797,7 @@
       <c r="G29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <v>43881</v>
       </c>
     </row>
@@ -1827,7 +1824,7 @@
       <c r="G30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>43882</v>
       </c>
     </row>
@@ -1854,7 +1851,7 @@
       <c r="G31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>43876</v>
       </c>
     </row>
@@ -1881,7 +1878,7 @@
       <c r="G32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <v>43876</v>
       </c>
     </row>
@@ -1908,7 +1905,7 @@
       <c r="G33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>43876</v>
       </c>
     </row>
@@ -1935,7 +1932,7 @@
       <c r="G34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="14">
         <v>43880</v>
       </c>
     </row>
@@ -1962,7 +1959,7 @@
       <c r="G35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="14">
         <v>43882</v>
       </c>
     </row>
@@ -1989,7 +1986,7 @@
       <c r="G36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <v>43881</v>
       </c>
     </row>
@@ -2016,7 +2013,7 @@
       <c r="G37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="14">
         <v>43877</v>
       </c>
     </row>
@@ -2043,7 +2040,7 @@
       <c r="G38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="14">
         <v>43882</v>
       </c>
     </row>
@@ -2070,7 +2067,7 @@
       <c r="G39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="14">
         <v>43882</v>
       </c>
     </row>
@@ -2097,7 +2094,7 @@
       <c r="G40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="14">
         <v>43882</v>
       </c>
     </row>
@@ -2124,7 +2121,7 @@
       <c r="G41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="14">
         <v>43881</v>
       </c>
     </row>
@@ -2151,7 +2148,7 @@
       <c r="G42" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="14">
         <v>43881</v>
       </c>
     </row>
@@ -2178,7 +2175,7 @@
       <c r="G43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="14">
         <v>43882</v>
       </c>
     </row>
@@ -2205,7 +2202,7 @@
       <c r="G44" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="14">
         <v>43877</v>
       </c>
     </row>
@@ -2217,7 +2214,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="15"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="6" t="s">
@@ -2241,7 +2238,7 @@
       <c r="G46" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="14">
         <v>43874</v>
       </c>
     </row>
@@ -2267,7 +2264,7 @@
       <c r="G47" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="14">
         <v>43874</v>
       </c>
     </row>
@@ -2293,7 +2290,7 @@
       <c r="G48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="14">
         <v>43884</v>
       </c>
     </row>
@@ -2314,52 +2311,52 @@
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="14"/>
+      <c r="G50" s="13"/>
       <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="12">
         <f>E44+E43+E42+E41+E40+E39+E38+E37+E36+E35+E34+E33+E32+E31+E30+E29+E28+E27+E26+E25+E24+E23+E22+E21+E20+E19+E18+E17+E10+E9+E8+E7+E6+E5+E4+E3+E2+E46+E47+E48+E49</f>
         <v>563</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="D53" s="13"/>
-      <c r="E53" s="13">
+      <c r="D53" s="12"/>
+      <c r="E53" s="12">
         <f>COUNTIF($F$2:$F$50,"Alex")</f>
         <v>18</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="D54" s="13"/>
-      <c r="E54" s="13">
+      <c r="D54" s="12"/>
+      <c r="E54" s="12">
         <f>COUNTIF($F$2:$F$50,"Vinny")</f>
         <v>19</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="D55" s="13"/>
-      <c r="E55" s="13">
+      <c r="D55" s="12"/>
+      <c r="E55" s="12">
         <f>COUNTIF($F$2:$F$50,"Jon")</f>
         <v>8</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="12" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinnyvalente/Desktop/SCCC/Spring 2020/CSE248 /CSE248GroupProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC73D454-F5BD-8B40-A41D-669EFE1396D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44921305-9AC1-7D45-8599-A140D9783185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{1519A6EF-D465-BE48-BCF1-CBE758F2DBA9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="59">
   <si>
     <t>Weight</t>
   </si>
@@ -204,15 +204,6 @@
   </si>
   <si>
     <t>Final UNL Diagram (15 points)</t>
-  </si>
-  <si>
-    <t>: Alex</t>
-  </si>
-  <si>
-    <t>: Vinny</t>
-  </si>
-  <si>
-    <t>: Jon</t>
   </si>
   <si>
     <t>DAY COMPLETED</t>
@@ -1034,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7172CB-218E-634F-8C4E-F928855B0C14}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1052,7 +1043,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>35</v>
@@ -1073,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2332,33 +2323,18 @@
     </row>
     <row r="53" spans="1:8">
       <c r="D53" s="12"/>
-      <c r="E53" s="12">
-        <f>COUNTIF($F$2:$F$50,"Alex")</f>
-        <v>18</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" spans="1:8">
       <c r="D54" s="12"/>
-      <c r="E54" s="12">
-        <f>COUNTIF($F$2:$F$50,"Vinny")</f>
-        <v>19</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>58</v>
-      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:8">
       <c r="D55" s="12"/>
-      <c r="E55" s="12">
-        <f>COUNTIF($F$2:$F$50,"Jon")</f>
-        <v>8</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
